--- a/digitizedData/data33kVsubStation-August-5-2023.xlsx
+++ b/digitizedData/data33kVsubStation-August-5-2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susan/Documents/POWER GRID/HW2/digitizedData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB89FAF0-DD59-714F-A0C9-6F89E3E3EAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A43A623-02D1-1944-8EA6-2ECF4735478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -424,7 +424,7 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>44755</v>
+        <v>45143</v>
       </c>
       <c r="I5" s="1">
         <v>5.0999999999999996</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>44755.041666666701</v>
+        <v>45143.041666666664</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>44755.083333333299</v>
+        <v>45143.083333333336</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>44755.125</v>
+        <v>45143.125</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>44755.166666666701</v>
+        <v>45143.166666666664</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>44755.208333333299</v>
+        <v>45143.208333333336</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>44755.25</v>
+        <v>45143.25</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -511,7 +511,7 @@
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>44755.291666666701</v>
+        <v>45143.291666666664</v>
       </c>
       <c r="I12" s="1">
         <v>4.3</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>44755.333333333401</v>
+        <v>45143.333333333336</v>
       </c>
       <c r="I13" s="1">
         <v>4.5</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>44755.375</v>
+        <v>45143.375</v>
       </c>
       <c r="I14" s="1">
         <v>4.5</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>44755.416666666701</v>
+        <v>45143.416666666664</v>
       </c>
       <c r="I15" s="1">
         <v>4.3</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>44755.458333333401</v>
+        <v>45143.458333333336</v>
       </c>
       <c r="I16" s="1">
         <v>5.2</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>44755.5</v>
+        <v>45143.5</v>
       </c>
       <c r="I17" s="1">
         <v>4.9000000000000004</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>44755.541666666701</v>
+        <v>45143.541666666664</v>
       </c>
       <c r="I18" s="1">
         <v>4.8</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
-        <v>44755.583333333401</v>
+        <v>45143.583333333336</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -609,7 +609,7 @@
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
-        <v>44755.625</v>
+        <v>45143.625</v>
       </c>
       <c r="I20" s="1">
         <v>5.56</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
-        <v>44755.666666666701</v>
+        <v>45143.666666666664</v>
       </c>
       <c r="I21" s="1">
         <v>5.21</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
-        <v>44755.708333333401</v>
+        <v>45143.708333333336</v>
       </c>
       <c r="I22" s="1">
         <v>6.07</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
-        <v>44755.750000000102</v>
+        <v>45143.75</v>
       </c>
       <c r="I23" s="1">
         <v>6.19</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
-        <v>44755.791666666701</v>
+        <v>45143.791666666664</v>
       </c>
       <c r="I24" s="1">
         <v>6.06</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
-        <v>44755.833333333401</v>
+        <v>45143.833333333336</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>12</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
-        <v>44755.875000000102</v>
+        <v>45143.875</v>
       </c>
       <c r="I26" s="1">
         <v>6.1</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>44755.916666666701</v>
+        <v>45143.916666666664</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>44755.958333333401</v>
+        <v>45143.958333333336</v>
       </c>
       <c r="I28" s="1">
         <v>5.0999999999999996</v>
